--- a/data/trans_orig/P1_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7A22F0E-C98D-46D8-88B3-2DC780CC2EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{526316D6-B029-4501-A512-BC893C1EF76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0301C494-8BF4-4A28-A2AD-9433D21C250E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{69813B67-C562-40C5-8C3F-8C53D9B4F657}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="437">
   <si>
     <t>Hogares unipersonales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,1213 +77,1279 @@
     <t>2,9%</t>
   </si>
   <si>
-    <t>0,88%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares unipersonales en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>Hogares unipersonales en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
   </si>
   <si>
     <t>7,98%</t>
   </si>
   <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,1%</t>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
   </si>
   <si>
     <t>92,02%</t>
   </si>
   <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares unipersonales en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
   </si>
   <si>
     <t>9,9%</t>
   </si>
   <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
   </si>
   <si>
     <t>90,1%</t>
   </si>
   <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>Hogares unipersonales en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
   </si>
   <si>
     <t>12,55%</t>
   </si>
   <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
   </si>
   <si>
     <t>87,45%</t>
   </si>
   <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>Hogares unipersonales en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
   </si>
   <si>
     <t>15,53%</t>
   </si>
   <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
   </si>
   <si>
     <t>84,47%</t>
   </si>
   <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>Hogares unipersonales en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
   </si>
   <si>
     <t>17,21%</t>
   </si>
   <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
   </si>
   <si>
     <t>82,79%</t>
   </si>
   <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
   </si>
   <si>
     <t>78,84%</t>
   </si>
   <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
   </si>
   <si>
     <t>80,64%</t>
   </si>
   <si>
-    <t>78,81%</t>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
   </si>
   <si>
     <t>17,82%</t>
   </si>
   <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
   </si>
   <si>
     <t>17,36%</t>
   </si>
   <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
   </si>
   <si>
     <t>17,58%</t>
   </si>
   <si>
-    <t>16,56%</t>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
   </si>
   <si>
     <t>82,18%</t>
   </si>
   <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
   </si>
   <si>
     <t>82,64%</t>
   </si>
   <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
   </si>
   <si>
     <t>82,42%</t>
   </si>
   <si>
-    <t>83,44%</t>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
   </si>
 </sst>
 </file>
@@ -1695,7 +1761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8B82C6-CD3A-4C43-BA47-87B244AD69A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83F9B9F-FDD4-4E32-BEA6-23359A6676C8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2290,7 +2356,7 @@
         <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="H13" s="7">
         <v>70</v>
@@ -2299,13 +2365,13 @@
         <v>71078</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>115</v>
@@ -2314,13 +2380,13 @@
         <v>123018</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2335,13 +2401,13 @@
         <v>626569</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>626</v>
@@ -2350,13 +2416,13 @@
         <v>612763</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1222</v>
@@ -2365,13 +2431,13 @@
         <v>1239332</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2427,7 +2493,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2439,13 +2505,13 @@
         <v>93352</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>93</v>
@@ -2454,13 +2520,13 @@
         <v>99236</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>188</v>
@@ -2469,13 +2535,13 @@
         <v>192588</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2490,13 +2556,13 @@
         <v>848870</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="H17" s="7">
         <v>904</v>
@@ -2672,7 +2738,7 @@
         <v>6000</v>
       </c>
       <c r="N20" s="7">
-        <v>6120959</v>
+        <v>6120960</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>120</v>
@@ -2723,7 +2789,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2758,7 +2824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCC6528-1012-45FE-BC50-51A7FD0811E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88DEC01-0E37-4EC4-8D18-95A99241D579}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3040,10 +3106,10 @@
         <v>143</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H7" s="7">
         <v>59</v>
@@ -3052,13 +3118,13 @@
         <v>64067</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M7" s="7">
         <v>101</v>
@@ -3067,13 +3133,13 @@
         <v>110131</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3088,13 +3154,13 @@
         <v>541640</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>492</v>
@@ -3103,13 +3169,13 @@
         <v>521078</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>1002</v>
@@ -3118,13 +3184,13 @@
         <v>1062718</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3192,13 +3258,13 @@
         <v>75153</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>58</v>
+        <v>162</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H10" s="7">
         <v>70</v>
@@ -3207,13 +3273,13 @@
         <v>75693</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>138</v>
@@ -3222,13 +3288,13 @@
         <v>150846</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>161</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3243,13 +3309,13 @@
         <v>942794</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>68</v>
+        <v>171</v>
       </c>
       <c r="H11" s="7">
         <v>870</v>
@@ -3258,13 +3324,13 @@
         <v>956491</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>172</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="M11" s="7">
         <v>1738</v>
@@ -3273,13 +3339,13 @@
         <v>1899285</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3347,13 +3413,13 @@
         <v>61450</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>59</v>
+        <v>177</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="H13" s="7">
         <v>61</v>
@@ -3362,13 +3428,13 @@
         <v>68001</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>114</v>
@@ -3377,13 +3443,13 @@
         <v>129451</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3398,13 +3464,13 @@
         <v>696173</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>186</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="H14" s="7">
         <v>644</v>
@@ -3413,13 +3479,13 @@
         <v>709173</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>121</v>
+        <v>189</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="M14" s="7">
         <v>1280</v>
@@ -3428,13 +3494,13 @@
         <v>1405346</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3490,7 +3556,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3502,13 +3568,13 @@
         <v>90322</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="H16" s="7">
         <v>127</v>
@@ -3517,13 +3583,13 @@
         <v>138698</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="M16" s="7">
         <v>210</v>
@@ -3532,13 +3598,13 @@
         <v>229020</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3553,13 +3619,13 @@
         <v>857417</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="H17" s="7">
         <v>876</v>
@@ -3568,13 +3634,13 @@
         <v>913203</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="M17" s="7">
         <v>1703</v>
@@ -3583,13 +3649,13 @@
         <v>1770620</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3657,13 +3723,13 @@
         <v>285066</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="H19" s="7">
         <v>324</v>
@@ -3675,10 +3741,10 @@
         <v>14</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="M19" s="7">
         <v>584</v>
@@ -3687,13 +3753,13 @@
         <v>639153</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3708,13 +3774,13 @@
         <v>3141713</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>209</v>
+        <v>158</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="H20" s="7">
         <v>2974</v>
@@ -3726,10 +3792,10 @@
         <v>24</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="M20" s="7">
         <v>5923</v>
@@ -3738,13 +3804,13 @@
         <v>6345935</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3821,7 +3887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE2D7CA-1717-4034-B29A-7881E3F54D23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9687292B-A546-45B5-8691-F1108D43414F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3838,7 +3904,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3945,13 +4011,13 @@
         <v>15496</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
@@ -3960,13 +4026,13 @@
         <v>17300</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="M4" s="7">
         <v>32</v>
@@ -3975,13 +4041,13 @@
         <v>32796</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,13 +4062,13 @@
         <v>101050</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="H5" s="7">
         <v>98</v>
@@ -4011,13 +4077,13 @@
         <v>96060</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="M5" s="7">
         <v>196</v>
@@ -4026,13 +4092,13 @@
         <v>197110</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>24</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,13 +4166,13 @@
         <v>68193</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="H7" s="7">
         <v>59</v>
@@ -4115,13 +4181,13 @@
         <v>64571</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="M7" s="7">
         <v>125</v>
@@ -4130,13 +4196,13 @@
         <v>132764</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4151,13 +4217,13 @@
         <v>490061</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="H8" s="7">
         <v>492</v>
@@ -4166,13 +4232,13 @@
         <v>494908</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="M8" s="7">
         <v>965</v>
@@ -4181,13 +4247,13 @@
         <v>984969</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,13 +4321,13 @@
         <v>107171</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>251</v>
+        <v>168</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="H10" s="7">
         <v>88</v>
@@ -4270,13 +4336,13 @@
         <v>103123</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="M10" s="7">
         <v>191</v>
@@ -4285,13 +4351,13 @@
         <v>210294</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>257</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,13 +4372,13 @@
         <v>915260</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>260</v>
+        <v>176</v>
       </c>
       <c r="H11" s="7">
         <v>889</v>
@@ -4321,13 +4387,13 @@
         <v>939790</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="M11" s="7">
         <v>1737</v>
@@ -4336,13 +4402,13 @@
         <v>1855050</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,13 +4476,13 @@
         <v>98633</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="H13" s="7">
         <v>86</v>
@@ -4425,13 +4491,13 @@
         <v>96591</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>280</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="M13" s="7">
         <v>173</v>
@@ -4440,13 +4506,13 @@
         <v>195224</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4461,13 +4527,13 @@
         <v>660919</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="H14" s="7">
         <v>650</v>
@@ -4476,13 +4542,13 @@
         <v>688420</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>290</v>
       </c>
       <c r="M14" s="7">
         <v>1259</v>
@@ -4491,13 +4557,13 @@
         <v>1349339</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4553,7 +4619,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4565,13 +4631,13 @@
         <v>136602</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="H16" s="7">
         <v>159</v>
@@ -4580,13 +4646,13 @@
         <v>186413</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="M16" s="7">
         <v>293</v>
@@ -4595,13 +4661,13 @@
         <v>323015</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4616,13 +4682,13 @@
         <v>800965</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="H17" s="7">
         <v>800</v>
@@ -4631,13 +4697,13 @@
         <v>857366</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="M17" s="7">
         <v>1598</v>
@@ -4646,13 +4712,13 @@
         <v>1658331</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4720,13 +4786,13 @@
         <v>426095</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>252</v>
+        <v>312</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="H19" s="7">
         <v>409</v>
@@ -4735,13 +4801,13 @@
         <v>467998</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="M19" s="7">
         <v>814</v>
@@ -4750,13 +4816,13 @@
         <v>894093</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4771,13 +4837,13 @@
         <v>2968255</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>259</v>
+        <v>321</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="H20" s="7">
         <v>2929</v>
@@ -4786,13 +4852,13 @@
         <v>3076544</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="M20" s="7">
         <v>5755</v>
@@ -4801,13 +4867,13 @@
         <v>6044799</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4884,7 +4950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7168A3-4AB6-4076-8170-38A62859EEEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC06700-F41B-4304-9EF6-4E8ABDE7441F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4901,7 +4967,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5008,13 +5074,13 @@
         <v>36126</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="H4" s="7">
         <v>79</v>
@@ -5023,13 +5089,13 @@
         <v>33222</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="M4" s="7">
         <v>121</v>
@@ -5038,13 +5104,13 @@
         <v>69348</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5059,13 +5125,13 @@
         <v>65856</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="H5" s="7">
         <v>164</v>
@@ -5074,13 +5140,13 @@
         <v>97511</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="M5" s="7">
         <v>240</v>
@@ -5089,13 +5155,13 @@
         <v>163367</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5163,13 +5229,13 @@
         <v>126467</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="H7" s="7">
         <v>228</v>
@@ -5178,13 +5244,13 @@
         <v>113665</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="M7" s="7">
         <v>379</v>
@@ -5193,13 +5259,13 @@
         <v>240132</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5214,13 +5280,13 @@
         <v>423356</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="H8" s="7">
         <v>770</v>
@@ -5229,13 +5295,13 @@
         <v>506302</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="M8" s="7">
         <v>1231</v>
@@ -5244,13 +5310,13 @@
         <v>929658</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5318,13 +5384,13 @@
         <v>157382</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="H10" s="7">
         <v>293</v>
@@ -5333,13 +5399,13 @@
         <v>168606</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>237</v>
+        <v>371</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="M10" s="7">
         <v>473</v>
@@ -5348,13 +5414,13 @@
         <v>325988</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>268</v>
+        <v>373</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5369,13 +5435,13 @@
         <v>881866</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="H11" s="7">
         <v>1224</v>
@@ -5384,13 +5450,13 @@
         <v>891473</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>245</v>
+        <v>381</v>
       </c>
       <c r="M11" s="7">
         <v>2008</v>
@@ -5399,13 +5465,13 @@
         <v>1773339</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>275</v>
+        <v>382</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5473,13 +5539,13 @@
         <v>117122</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="H13" s="7">
         <v>168</v>
@@ -5488,13 +5554,13 @@
         <v>106970</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>371</v>
+        <v>227</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="M13" s="7">
         <v>291</v>
@@ -5503,13 +5569,13 @@
         <v>224091</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5524,13 +5590,13 @@
         <v>611650</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="H14" s="7">
         <v>879</v>
@@ -5539,13 +5605,13 @@
         <v>767401</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>381</v>
+        <v>237</v>
       </c>
       <c r="M14" s="7">
         <v>1432</v>
@@ -5554,13 +5620,13 @@
         <v>1379051</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5616,7 +5682,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5628,13 +5694,13 @@
         <v>166172</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="H16" s="7">
         <v>360</v>
@@ -5643,13 +5709,13 @@
         <v>243438</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="M16" s="7">
         <v>553</v>
@@ -5658,13 +5724,13 @@
         <v>409610</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>285</v>
+        <v>408</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5679,13 +5745,13 @@
         <v>799231</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>365</v>
+        <v>410</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="H17" s="7">
         <v>1202</v>
@@ -5694,13 +5760,13 @@
         <v>906994</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="M17" s="7">
         <v>2015</v>
@@ -5709,13 +5775,13 @@
         <v>1706225</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>294</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5783,13 +5849,13 @@
         <v>603268</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="H19" s="7">
         <v>1128</v>
@@ -5798,13 +5864,13 @@
         <v>665901</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>403</v>
+        <v>423</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="M19" s="7">
         <v>1817</v>
@@ -5813,13 +5879,13 @@
         <v>1269169</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>406</v>
+        <v>426</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>404</v>
+        <v>427</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5834,13 +5900,13 @@
         <v>2781960</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>408</v>
+        <v>429</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>409</v>
+        <v>430</v>
       </c>
       <c r="H20" s="7">
         <v>4239</v>
@@ -5849,28 +5915,28 @@
         <v>3169680</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>410</v>
+        <v>431</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>411</v>
+        <v>432</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>412</v>
+        <v>433</v>
       </c>
       <c r="M20" s="7">
         <v>6926</v>
       </c>
       <c r="N20" s="7">
-        <v>5951640</v>
+        <v>5951639</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>413</v>
+        <v>434</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>414</v>
+        <v>436</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5912,7 +5978,7 @@
         <v>8743</v>
       </c>
       <c r="N21" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P1_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1_R-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{526316D6-B029-4501-A512-BC893C1EF76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4982EF1-C366-4FE0-8E41-630925D80256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{69813B67-C562-40C5-8C3F-8C53D9B4F657}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3E956FEA-6443-4732-B11C-B13812FE0B01}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="443">
   <si>
     <t>Hogares unipersonales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,28 +77,28 @@
     <t>2,9%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
   </si>
   <si>
     <t>9,95%</t>
   </si>
   <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
   </si>
   <si>
     <t>6,38%</t>
   </si>
   <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,1132 +107,1150 @@
     <t>97,1%</t>
   </si>
   <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
   </si>
   <si>
     <t>90,05%</t>
   </si>
   <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
   </si>
   <si>
     <t>93,62%</t>
   </si>
   <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>6,02%</t>
   </si>
   <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
   </si>
   <si>
     <t>6,55%</t>
   </si>
   <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
   </si>
   <si>
     <t>6,28%</t>
   </si>
   <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
   </si>
   <si>
     <t>93,98%</t>
   </si>
   <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
   </si>
   <si>
     <t>93,45%</t>
   </si>
   <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
   </si>
   <si>
     <t>93,72%</t>
   </si>
   <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>5,74%</t>
   </si>
   <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
   </si>
   <si>
     <t>7,94%</t>
   </si>
   <si>
-    <t>6,36%</t>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares unipersonales en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
   </si>
   <si>
     <t>9,85%</t>
   </si>
   <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
   </si>
   <si>
     <t>90,15%</t>
   </si>
   <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares unipersonales en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
     <t>8,32%</t>
   </si>
   <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
   </si>
   <si>
     <t>9,15%</t>
   </si>
   <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
   </si>
   <si>
     <t>91,68%</t>
   </si>
   <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
   </si>
   <si>
     <t>90,85%</t>
   </si>
   <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>Hogares unipersonales en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>Hogares unipersonales en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>13,3%</t>
   </si>
   <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>Hogares unipersonales en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
     <t>7,92%</t>
   </si>
   <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
   </si>
   <si>
     <t>92,08%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>Hogares unipersonales en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
   </si>
   <si>
     <t>86,02%</t>
@@ -1761,7 +1779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83F9B9F-FDD4-4E32-BEA6-23359A6676C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3662941E-882E-4DF1-904C-F26BD39412AE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2356,7 +2374,7 @@
         <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>70</v>
@@ -2365,13 +2383,13 @@
         <v>71078</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>115</v>
@@ -2380,13 +2398,13 @@
         <v>123018</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2401,13 +2419,13 @@
         <v>626569</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>626</v>
@@ -2416,13 +2434,13 @@
         <v>612763</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1222</v>
@@ -2431,13 +2449,13 @@
         <v>1239332</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2493,7 +2511,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2505,13 +2523,13 @@
         <v>93352</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>93</v>
@@ -2520,13 +2538,13 @@
         <v>99236</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>188</v>
@@ -2535,13 +2553,13 @@
         <v>192588</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2556,13 +2574,13 @@
         <v>848870</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>904</v>
@@ -2571,13 +2589,13 @@
         <v>939376</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1803</v>
@@ -2586,13 +2604,13 @@
         <v>1788246</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2660,13 +2678,13 @@
         <v>238649</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>284</v>
@@ -2675,13 +2693,13 @@
         <v>296132</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>511</v>
@@ -2690,13 +2708,13 @@
         <v>534781</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,16 +2726,16 @@
         <v>2987</v>
       </c>
       <c r="D20" s="7">
-        <v>3037895</v>
+        <v>3037894</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>3013</v>
@@ -2726,13 +2744,13 @@
         <v>3083066</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>6000</v>
@@ -2741,13 +2759,13 @@
         <v>6120960</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,7 +2777,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2803,7 +2821,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2824,7 +2842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88DEC01-0E37-4EC4-8D18-95A99241D579}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC1A4FB-02BB-4FAF-846D-4DCF76A5F890}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2841,7 +2859,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2948,13 +2966,13 @@
         <v>12076</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -2963,13 +2981,13 @@
         <v>7628</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -2978,13 +2996,13 @@
         <v>19704</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,13 +3017,13 @@
         <v>103689</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>92</v>
@@ -3014,13 +3032,13 @@
         <v>104277</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>200</v>
@@ -3029,13 +3047,13 @@
         <v>207966</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,13 +3121,13 @@
         <v>46064</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>59</v>
@@ -3118,13 +3136,13 @@
         <v>64067</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>101</v>
@@ -3133,13 +3151,13 @@
         <v>110131</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,13 +3172,13 @@
         <v>541640</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>492</v>
@@ -3169,13 +3187,13 @@
         <v>521078</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>1002</v>
@@ -3184,13 +3202,13 @@
         <v>1062718</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3258,13 +3276,13 @@
         <v>75153</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>70</v>
@@ -3273,13 +3291,13 @@
         <v>75693</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>138</v>
@@ -3288,13 +3306,13 @@
         <v>150846</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>38</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3309,13 +3327,13 @@
         <v>942794</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>870</v>
@@ -3324,13 +3342,13 @@
         <v>956491</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>1738</v>
@@ -3339,13 +3357,13 @@
         <v>1899285</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>47</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3413,13 +3431,13 @@
         <v>61450</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>61</v>
@@ -3428,13 +3446,13 @@
         <v>68001</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>114</v>
@@ -3443,13 +3461,13 @@
         <v>129451</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3464,13 +3482,13 @@
         <v>696173</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H14" s="7">
         <v>644</v>
@@ -3479,13 +3497,13 @@
         <v>709173</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>1280</v>
@@ -3494,13 +3512,13 @@
         <v>1405346</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,7 +3574,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3568,13 +3586,13 @@
         <v>90322</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H16" s="7">
         <v>127</v>
@@ -3583,13 +3601,13 @@
         <v>138698</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="M16" s="7">
         <v>210</v>
@@ -3598,13 +3616,13 @@
         <v>229020</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3619,13 +3637,13 @@
         <v>857417</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H17" s="7">
         <v>876</v>
@@ -3634,13 +3652,13 @@
         <v>913203</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M17" s="7">
         <v>1703</v>
@@ -3649,13 +3667,13 @@
         <v>1770620</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3723,13 +3741,13 @@
         <v>285066</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>149</v>
+        <v>219</v>
       </c>
       <c r="H19" s="7">
         <v>324</v>
@@ -3741,10 +3759,10 @@
         <v>14</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>146</v>
+        <v>221</v>
       </c>
       <c r="M19" s="7">
         <v>584</v>
@@ -3753,13 +3771,13 @@
         <v>639153</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3774,13 +3792,13 @@
         <v>3141713</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>158</v>
+        <v>226</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="H20" s="7">
         <v>2974</v>
@@ -3792,10 +3810,10 @@
         <v>24</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>155</v>
+        <v>228</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="M20" s="7">
         <v>5923</v>
@@ -3804,13 +3822,13 @@
         <v>6345935</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3866,7 +3884,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3887,7 +3905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9687292B-A546-45B5-8691-F1108D43414F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E74F3B-22EE-4340-8685-CA0EE1D373BD}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3904,7 +3922,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4011,13 +4029,13 @@
         <v>15496</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
@@ -4026,13 +4044,13 @@
         <v>17300</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>32</v>
@@ -4041,13 +4059,13 @@
         <v>32796</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,13 +4080,13 @@
         <v>101050</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>98</v>
@@ -4077,13 +4095,13 @@
         <v>96060</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="M5" s="7">
         <v>196</v>
@@ -4092,13 +4110,13 @@
         <v>197110</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,13 +4184,13 @@
         <v>68193</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="H7" s="7">
         <v>59</v>
@@ -4181,13 +4199,13 @@
         <v>64571</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="M7" s="7">
         <v>125</v>
@@ -4196,13 +4214,13 @@
         <v>132764</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,13 +4235,13 @@
         <v>490061</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="H8" s="7">
         <v>492</v>
@@ -4232,13 +4250,13 @@
         <v>494908</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M8" s="7">
         <v>965</v>
@@ -4247,13 +4265,13 @@
         <v>984969</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,13 +4339,13 @@
         <v>107171</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>168</v>
+        <v>267</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="H10" s="7">
         <v>88</v>
@@ -4336,13 +4354,13 @@
         <v>103123</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="M10" s="7">
         <v>191</v>
@@ -4351,13 +4369,13 @@
         <v>210294</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>197</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,13 +4390,13 @@
         <v>915260</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>176</v>
+        <v>277</v>
       </c>
       <c r="H11" s="7">
         <v>889</v>
@@ -4387,13 +4405,13 @@
         <v>939790</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="M11" s="7">
         <v>1737</v>
@@ -4402,13 +4420,13 @@
         <v>1855050</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>205</v>
+        <v>282</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,13 +4494,13 @@
         <v>98633</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="H13" s="7">
         <v>86</v>
@@ -4491,13 +4509,13 @@
         <v>96591</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>280</v>
+        <v>189</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="M13" s="7">
         <v>173</v>
@@ -4506,13 +4524,13 @@
         <v>195224</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4527,13 +4545,13 @@
         <v>660919</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="H14" s="7">
         <v>650</v>
@@ -4542,13 +4560,13 @@
         <v>688420</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>290</v>
+        <v>197</v>
       </c>
       <c r="M14" s="7">
         <v>1259</v>
@@ -4557,13 +4575,13 @@
         <v>1349339</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4619,7 +4637,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4631,13 +4649,13 @@
         <v>136602</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="H16" s="7">
         <v>159</v>
@@ -4646,13 +4664,13 @@
         <v>186413</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="M16" s="7">
         <v>293</v>
@@ -4661,13 +4679,13 @@
         <v>323015</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4682,13 +4700,13 @@
         <v>800965</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="H17" s="7">
         <v>800</v>
@@ -4697,13 +4715,13 @@
         <v>857366</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="M17" s="7">
         <v>1598</v>
@@ -4712,13 +4730,13 @@
         <v>1658331</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,13 +4804,13 @@
         <v>426095</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="H19" s="7">
         <v>409</v>
@@ -4801,13 +4819,13 @@
         <v>467998</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>317</v>
+        <v>254</v>
       </c>
       <c r="M19" s="7">
         <v>814</v>
@@ -4816,13 +4834,13 @@
         <v>894093</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,13 +4855,13 @@
         <v>2968255</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="H20" s="7">
         <v>2929</v>
@@ -4852,13 +4870,13 @@
         <v>3076544</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>325</v>
+        <v>261</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="M20" s="7">
         <v>5755</v>
@@ -4867,13 +4885,13 @@
         <v>6044799</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4929,7 +4947,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4950,7 +4968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC06700-F41B-4304-9EF6-4E8ABDE7441F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA5ACB5-6A91-4892-AF3F-D9246813C346}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4967,7 +4985,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5074,13 +5092,13 @@
         <v>36126</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H4" s="7">
         <v>79</v>
@@ -5089,13 +5107,13 @@
         <v>33222</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="M4" s="7">
         <v>121</v>
@@ -5104,13 +5122,13 @@
         <v>69348</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5125,13 +5143,13 @@
         <v>65856</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H5" s="7">
         <v>164</v>
@@ -5140,13 +5158,13 @@
         <v>97511</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="M5" s="7">
         <v>240</v>
@@ -5155,13 +5173,13 @@
         <v>163367</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,13 +5247,13 @@
         <v>126467</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="H7" s="7">
         <v>228</v>
@@ -5244,13 +5262,13 @@
         <v>113665</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="M7" s="7">
         <v>379</v>
@@ -5259,13 +5277,13 @@
         <v>240132</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5280,13 +5298,13 @@
         <v>423356</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="H8" s="7">
         <v>770</v>
@@ -5295,13 +5313,13 @@
         <v>506302</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="M8" s="7">
         <v>1231</v>
@@ -5310,13 +5328,13 @@
         <v>929658</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,13 +5402,13 @@
         <v>157382</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="H10" s="7">
         <v>293</v>
@@ -5399,13 +5417,13 @@
         <v>168606</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="M10" s="7">
         <v>473</v>
@@ -5414,13 +5432,13 @@
         <v>325988</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,13 +5453,13 @@
         <v>881866</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="H11" s="7">
         <v>1224</v>
@@ -5450,13 +5468,13 @@
         <v>891473</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="M11" s="7">
         <v>2008</v>
@@ -5465,13 +5483,13 @@
         <v>1773339</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5539,13 +5557,13 @@
         <v>117122</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="H13" s="7">
         <v>168</v>
@@ -5554,13 +5572,13 @@
         <v>106970</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>227</v>
+        <v>393</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="M13" s="7">
         <v>291</v>
@@ -5569,13 +5587,13 @@
         <v>224091</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5590,13 +5608,13 @@
         <v>611650</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="H14" s="7">
         <v>879</v>
@@ -5605,13 +5623,13 @@
         <v>767401</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>237</v>
+        <v>403</v>
       </c>
       <c r="M14" s="7">
         <v>1432</v>
@@ -5620,13 +5638,13 @@
         <v>1379051</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5682,7 +5700,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5694,13 +5712,13 @@
         <v>166172</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="H16" s="7">
         <v>360</v>
@@ -5709,13 +5727,13 @@
         <v>243438</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="M16" s="7">
         <v>553</v>
@@ -5724,13 +5742,13 @@
         <v>409610</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5745,13 +5763,13 @@
         <v>799231</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="H17" s="7">
         <v>1202</v>
@@ -5760,13 +5778,13 @@
         <v>906994</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="M17" s="7">
         <v>2015</v>
@@ -5775,13 +5793,13 @@
         <v>1706225</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5849,13 +5867,13 @@
         <v>603268</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="H19" s="7">
         <v>1128</v>
@@ -5864,13 +5882,13 @@
         <v>665901</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="M19" s="7">
         <v>1817</v>
@@ -5879,13 +5897,13 @@
         <v>1269169</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5900,13 +5918,13 @@
         <v>2781960</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="H20" s="7">
         <v>4239</v>
@@ -5915,13 +5933,13 @@
         <v>3169680</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="M20" s="7">
         <v>6926</v>
@@ -5930,13 +5948,13 @@
         <v>5951639</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5992,7 +6010,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4982EF1-C366-4FE0-8E41-630925D80256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CC6409D-42D8-4EBF-81D6-7A6ED2155444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3E956FEA-6443-4732-B11C-B13812FE0B01}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6F3C7E36-180E-4000-B7A2-076C7CC2ECDB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="415">
   <si>
     <t>Hogares unipersonales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,1297 +77,1213 @@
     <t>2,9%</t>
   </si>
   <si>
-    <t>0,91%</t>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
   </si>
   <si>
     <t>7,72%</t>
   </si>
   <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,1%</t>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
   </si>
   <si>
     <t>92,28%</t>
   </si>
   <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
   </si>
   <si>
     <t>91,58%</t>
   </si>
   <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares unipersonales en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
   </si>
   <si>
     <t>11,05%</t>
   </si>
   <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
   </si>
   <si>
     <t>88,95%</t>
   </si>
   <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>Hogares unipersonales en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
   </si>
   <si>
     <t>8,8%</t>
   </si>
   <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
   </si>
   <si>
     <t>91,2%</t>
   </si>
   <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares unipersonales en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
   </si>
   <si>
     <t>12,58%</t>
   </si>
   <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
   </si>
   <si>
     <t>87,42%</t>
   </si>
   <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>Hogares unipersonales en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>Hogares unipersonales en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
   </si>
   <si>
     <t>15,95%</t>
   </si>
   <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
   </si>
   <si>
     <t>84,05%</t>
   </si>
   <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>Hogares unipersonales en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
   </si>
   <si>
     <t>21,16%</t>
   </si>
   <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
   </si>
   <si>
     <t>19,36%</t>
   </si>
   <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
   </si>
   <si>
     <t>78,84%</t>
   </si>
   <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
   </si>
   <si>
     <t>80,64%</t>
   </si>
   <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
+    <t>78,81%</t>
   </si>
   <si>
     <t>17,82%</t>
   </si>
   <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
   </si>
   <si>
     <t>17,36%</t>
   </si>
   <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
   </si>
   <si>
     <t>17,58%</t>
   </si>
   <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
+    <t>16,56%</t>
   </si>
   <si>
     <t>82,18%</t>
   </si>
   <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
   </si>
   <si>
     <t>82,64%</t>
   </si>
   <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
   </si>
   <si>
     <t>82,42%</t>
   </si>
   <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
+    <t>83,44%</t>
   </si>
 </sst>
 </file>
@@ -1779,7 +1695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3662941E-882E-4DF1-904C-F26BD39412AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00C8736-98E0-42EA-85E4-A51F3F92767F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2526,10 +2442,10 @@
         <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>93</v>
@@ -2538,13 +2454,13 @@
         <v>99236</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>188</v>
@@ -2553,13 +2469,13 @@
         <v>192588</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2574,13 +2490,13 @@
         <v>848870</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H17" s="7">
         <v>904</v>
@@ -2589,13 +2505,13 @@
         <v>939376</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1803</v>
@@ -2604,13 +2520,13 @@
         <v>1788246</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2678,13 +2594,13 @@
         <v>238649</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>284</v>
@@ -2693,13 +2609,13 @@
         <v>296132</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>511</v>
@@ -2708,13 +2624,13 @@
         <v>534781</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2726,16 +2642,16 @@
         <v>2987</v>
       </c>
       <c r="D20" s="7">
-        <v>3037894</v>
+        <v>3037895</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>3013</v>
@@ -2744,28 +2660,28 @@
         <v>3083066</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>6000</v>
       </c>
       <c r="N20" s="7">
-        <v>6120960</v>
+        <v>6120959</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2777,7 +2693,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2807,7 +2723,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2821,7 +2737,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2842,7 +2758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC1A4FB-02BB-4FAF-846D-4DCF76A5F890}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD83B3C-CBB8-42AE-A067-B46EFC72DDB8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2859,7 +2775,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2966,13 +2882,13 @@
         <v>12076</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -2981,13 +2897,13 @@
         <v>7628</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -2996,13 +2912,13 @@
         <v>19704</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3017,13 +2933,13 @@
         <v>103689</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>92</v>
@@ -3032,13 +2948,13 @@
         <v>104277</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>200</v>
@@ -3047,13 +2963,13 @@
         <v>207966</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,13 +3037,13 @@
         <v>46064</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H7" s="7">
         <v>59</v>
@@ -3136,13 +3052,13 @@
         <v>64067</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M7" s="7">
         <v>101</v>
@@ -3151,13 +3067,13 @@
         <v>110131</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,13 +3088,13 @@
         <v>541640</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="H8" s="7">
         <v>492</v>
@@ -3187,13 +3103,13 @@
         <v>521078</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="M8" s="7">
         <v>1002</v>
@@ -3202,13 +3118,13 @@
         <v>1062718</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3276,13 +3192,13 @@
         <v>75153</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
+        <v>58</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H10" s="7">
         <v>70</v>
@@ -3291,13 +3207,13 @@
         <v>75693</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="M10" s="7">
         <v>138</v>
@@ -3306,13 +3222,13 @@
         <v>150846</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3327,13 +3243,13 @@
         <v>942794</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>174</v>
+        <v>68</v>
       </c>
       <c r="H11" s="7">
         <v>870</v>
@@ -3342,13 +3258,13 @@
         <v>956491</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>175</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="M11" s="7">
         <v>1738</v>
@@ -3357,13 +3273,13 @@
         <v>1899285</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,13 +3347,13 @@
         <v>61450</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>181</v>
+        <v>59</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="H13" s="7">
         <v>61</v>
@@ -3446,13 +3362,13 @@
         <v>68001</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>184</v>
+        <v>113</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="M13" s="7">
         <v>114</v>
@@ -3461,13 +3377,13 @@
         <v>129451</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3482,13 +3398,13 @@
         <v>696173</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>190</v>
+        <v>67</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="H14" s="7">
         <v>644</v>
@@ -3497,13 +3413,13 @@
         <v>709173</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>193</v>
+        <v>121</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="M14" s="7">
         <v>1280</v>
@@ -3512,13 +3428,13 @@
         <v>1405346</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,13 +3502,13 @@
         <v>90322</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="H16" s="7">
         <v>127</v>
@@ -3601,13 +3517,13 @@
         <v>138698</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="M16" s="7">
         <v>210</v>
@@ -3616,13 +3532,13 @@
         <v>229020</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,13 +3553,13 @@
         <v>857417</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="H17" s="7">
         <v>876</v>
@@ -3652,13 +3568,13 @@
         <v>913203</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="M17" s="7">
         <v>1703</v>
@@ -3667,13 +3583,13 @@
         <v>1770620</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3741,13 +3657,13 @@
         <v>285066</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="H19" s="7">
         <v>324</v>
@@ -3759,10 +3675,10 @@
         <v>14</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="M19" s="7">
         <v>584</v>
@@ -3771,13 +3687,13 @@
         <v>639153</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3792,13 +3708,13 @@
         <v>3141713</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="H20" s="7">
         <v>2974</v>
@@ -3810,10 +3726,10 @@
         <v>24</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="M20" s="7">
         <v>5923</v>
@@ -3822,13 +3738,13 @@
         <v>6345935</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3884,7 +3800,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3905,7 +3821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E74F3B-22EE-4340-8685-CA0EE1D373BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE95AC35-B330-4A42-962A-80EE7B1554D2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3922,7 +3838,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4029,13 +3945,13 @@
         <v>15496</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
@@ -4044,13 +3960,13 @@
         <v>17300</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="M4" s="7">
         <v>32</v>
@@ -4059,13 +3975,13 @@
         <v>32796</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>240</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,13 +3996,13 @@
         <v>101050</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="H5" s="7">
         <v>98</v>
@@ -4095,13 +4011,13 @@
         <v>96060</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M5" s="7">
         <v>196</v>
@@ -4110,13 +4026,13 @@
         <v>197110</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,13 +4100,13 @@
         <v>68193</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H7" s="7">
         <v>59</v>
@@ -4199,13 +4115,13 @@
         <v>64571</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="M7" s="7">
         <v>125</v>
@@ -4214,13 +4130,13 @@
         <v>132764</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,13 +4151,13 @@
         <v>490061</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="H8" s="7">
         <v>492</v>
@@ -4250,13 +4166,13 @@
         <v>494908</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="M8" s="7">
         <v>965</v>
@@ -4265,13 +4181,13 @@
         <v>984969</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,13 +4255,13 @@
         <v>107171</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="H10" s="7">
         <v>88</v>
@@ -4354,13 +4270,13 @@
         <v>103123</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="M10" s="7">
         <v>191</v>
@@ -4369,13 +4285,13 @@
         <v>210294</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,13 +4306,13 @@
         <v>915260</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="H11" s="7">
         <v>889</v>
@@ -4405,13 +4321,13 @@
         <v>939790</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="M11" s="7">
         <v>1737</v>
@@ -4420,13 +4336,13 @@
         <v>1855050</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>283</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,13 +4410,13 @@
         <v>98633</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="H13" s="7">
         <v>86</v>
@@ -4509,13 +4425,13 @@
         <v>96591</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>189</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="M13" s="7">
         <v>173</v>
@@ -4524,13 +4440,13 @@
         <v>195224</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,13 +4461,13 @@
         <v>660919</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="H14" s="7">
         <v>650</v>
@@ -4560,13 +4476,13 @@
         <v>688420</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>1259</v>
@@ -4575,13 +4491,13 @@
         <v>1349339</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4649,13 +4565,13 @@
         <v>136602</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="H16" s="7">
         <v>159</v>
@@ -4664,13 +4580,13 @@
         <v>186413</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="M16" s="7">
         <v>293</v>
@@ -4679,13 +4595,13 @@
         <v>323015</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4700,13 +4616,13 @@
         <v>800965</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="H17" s="7">
         <v>800</v>
@@ -4715,13 +4631,13 @@
         <v>857366</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="M17" s="7">
         <v>1598</v>
@@ -4730,13 +4646,13 @@
         <v>1658331</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4804,13 +4720,13 @@
         <v>426095</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>318</v>
+        <v>252</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="H19" s="7">
         <v>409</v>
@@ -4819,13 +4735,13 @@
         <v>467998</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>254</v>
+        <v>304</v>
       </c>
       <c r="M19" s="7">
         <v>814</v>
@@ -4834,13 +4750,13 @@
         <v>894093</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4855,13 +4771,13 @@
         <v>2968255</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>326</v>
+        <v>259</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="H20" s="7">
         <v>2929</v>
@@ -4870,13 +4786,13 @@
         <v>3076544</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>261</v>
+        <v>311</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="M20" s="7">
         <v>5755</v>
@@ -4885,13 +4801,13 @@
         <v>6044799</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4947,7 +4863,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4968,7 +4884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA5ACB5-6A91-4892-AF3F-D9246813C346}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4DB297-47EC-4881-BD34-E80B4418DE88}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4985,7 +4901,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5092,13 +5008,13 @@
         <v>36126</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="H4" s="7">
         <v>79</v>
@@ -5107,13 +5023,13 @@
         <v>33222</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="M4" s="7">
         <v>121</v>
@@ -5122,13 +5038,13 @@
         <v>69348</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5143,13 +5059,13 @@
         <v>65856</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="H5" s="7">
         <v>164</v>
@@ -5158,13 +5074,13 @@
         <v>97511</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="M5" s="7">
         <v>240</v>
@@ -5173,13 +5089,13 @@
         <v>163367</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,13 +5163,13 @@
         <v>126467</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="H7" s="7">
         <v>228</v>
@@ -5262,13 +5178,13 @@
         <v>113665</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="M7" s="7">
         <v>379</v>
@@ -5277,13 +5193,13 @@
         <v>240132</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5298,13 +5214,13 @@
         <v>423356</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="H8" s="7">
         <v>770</v>
@@ -5313,13 +5229,13 @@
         <v>506302</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="M8" s="7">
         <v>1231</v>
@@ -5328,13 +5244,13 @@
         <v>929658</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5402,13 +5318,13 @@
         <v>157382</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="H10" s="7">
         <v>293</v>
@@ -5417,13 +5333,13 @@
         <v>168606</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>375</v>
+        <v>237</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="M10" s="7">
         <v>473</v>
@@ -5432,13 +5348,13 @@
         <v>325988</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>377</v>
+        <v>268</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5453,13 +5369,13 @@
         <v>881866</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="H11" s="7">
         <v>1224</v>
@@ -5468,13 +5384,13 @@
         <v>891473</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>385</v>
+        <v>245</v>
       </c>
       <c r="M11" s="7">
         <v>2008</v>
@@ -5483,13 +5399,13 @@
         <v>1773339</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>386</v>
+        <v>275</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5557,13 +5473,13 @@
         <v>117122</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="H13" s="7">
         <v>168</v>
@@ -5572,13 +5488,13 @@
         <v>106970</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="M13" s="7">
         <v>291</v>
@@ -5587,13 +5503,13 @@
         <v>224091</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5608,13 +5524,13 @@
         <v>611650</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="H14" s="7">
         <v>879</v>
@@ -5623,13 +5539,13 @@
         <v>767401</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="M14" s="7">
         <v>1432</v>
@@ -5638,13 +5554,13 @@
         <v>1379051</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5712,13 +5628,13 @@
         <v>166172</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="H16" s="7">
         <v>360</v>
@@ -5727,13 +5643,13 @@
         <v>243438</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="M16" s="7">
         <v>553</v>
@@ -5742,13 +5658,13 @@
         <v>409610</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>414</v>
+        <v>285</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5763,13 +5679,13 @@
         <v>799231</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>416</v>
+        <v>365</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>418</v>
+        <v>393</v>
       </c>
       <c r="H17" s="7">
         <v>1202</v>
@@ -5778,13 +5694,13 @@
         <v>906994</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>419</v>
+        <v>394</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>420</v>
+        <v>395</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="M17" s="7">
         <v>2015</v>
@@ -5793,13 +5709,13 @@
         <v>1706225</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>423</v>
+        <v>398</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>424</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,13 +5783,13 @@
         <v>603268</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>426</v>
+        <v>400</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>427</v>
+        <v>401</v>
       </c>
       <c r="H19" s="7">
         <v>1128</v>
@@ -5882,13 +5798,13 @@
         <v>665901</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>428</v>
+        <v>402</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>430</v>
+        <v>404</v>
       </c>
       <c r="M19" s="7">
         <v>1817</v>
@@ -5897,13 +5813,13 @@
         <v>1269169</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>431</v>
+        <v>405</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>432</v>
+        <v>406</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>433</v>
+        <v>404</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5918,13 +5834,13 @@
         <v>2781960</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>434</v>
+        <v>407</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="H20" s="7">
         <v>4239</v>
@@ -5933,28 +5849,28 @@
         <v>3169680</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>437</v>
+        <v>410</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>439</v>
+        <v>412</v>
       </c>
       <c r="M20" s="7">
         <v>6926</v>
       </c>
       <c r="N20" s="7">
-        <v>5951639</v>
+        <v>5951640</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>440</v>
+        <v>413</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>441</v>
+        <v>411</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>442</v>
+        <v>414</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5996,7 +5912,7 @@
         <v>8743</v>
       </c>
       <c r="N21" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6010,7 +5926,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CC6409D-42D8-4EBF-81D6-7A6ED2155444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FC5703C-5629-4D67-A798-30498A9F4093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6F3C7E36-180E-4000-B7A2-076C7CC2ECDB}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{29EA7362-8510-47B8-87F6-AFB6C345F7FF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="354">
   <si>
     <t>Hogares unipersonales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,609 +68,516 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares unipersonales en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
   </si>
   <si>
     <t>9,95%</t>
   </si>
   <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
   </si>
   <si>
     <t>90,05%</t>
   </si>
   <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares unipersonales en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
     <t>88,95%</t>
   </si>
   <si>
@@ -689,156 +596,108 @@
     <t>Hogares unipersonales en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
   </si>
   <si>
     <t>8,8%</t>
   </si>
   <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
   </si>
   <si>
     <t>91,2%</t>
   </si>
   <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
     <t>12,99%</t>
   </si>
   <si>
@@ -992,298 +851,256 @@
     <t>Hogares unipersonales en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
   </si>
   <si>
     <t>15,95%</t>
   </si>
   <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
   </si>
   <si>
     <t>84,05%</t>
   </si>
   <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
   </si>
 </sst>
 </file>
@@ -1695,8 +1512,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00C8736-98E0-42EA-85E4-A51F3F92767F}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5C538E-37D9-4C30-B43F-1793CC1F9C61}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1813,10 +1630,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="D4" s="7">
-        <v>3345</v>
+        <v>38174</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1828,10 +1645,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="I4" s="7">
-        <v>11217</v>
+        <v>48901</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1843,10 +1660,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="N4" s="7">
-        <v>14562</v>
+        <v>87075</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1864,10 +1681,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>102</v>
+        <v>646</v>
       </c>
       <c r="D5" s="7">
-        <v>112013</v>
+        <v>655838</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1879,10 +1696,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>115</v>
+        <v>647</v>
       </c>
       <c r="I5" s="7">
-        <v>101538</v>
+        <v>639450</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1894,10 +1711,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>217</v>
+        <v>1293</v>
       </c>
       <c r="N5" s="7">
-        <v>213551</v>
+        <v>1295288</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1915,10 +1732,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1930,10 +1747,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1945,10 +1762,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1968,10 +1785,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D7" s="7">
-        <v>34829</v>
+        <v>55183</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1983,10 +1800,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="I7" s="7">
-        <v>37684</v>
+        <v>76917</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1998,10 +1815,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="N7" s="7">
-        <v>72513</v>
+        <v>132100</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2019,10 +1836,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>544</v>
+        <v>846</v>
       </c>
       <c r="D8" s="7">
-        <v>543825</v>
+        <v>906617</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2034,10 +1851,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>532</v>
+        <v>836</v>
       </c>
       <c r="I8" s="7">
-        <v>537912</v>
+        <v>891476</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2049,10 +1866,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1076</v>
+        <v>1682</v>
       </c>
       <c r="N8" s="7">
-        <v>1081737</v>
+        <v>1798093</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2070,10 +1887,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2085,10 +1902,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2100,10 +1917,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2123,10 +1940,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D10" s="7">
-        <v>55183</v>
+        <v>51940</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2138,10 +1955,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I10" s="7">
-        <v>76917</v>
+        <v>71078</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2153,10 +1970,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="N10" s="7">
-        <v>132100</v>
+        <v>123018</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2174,10 +1991,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>846</v>
+        <v>596</v>
       </c>
       <c r="D11" s="7">
-        <v>906617</v>
+        <v>626569</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2189,10 +2006,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>836</v>
+        <v>626</v>
       </c>
       <c r="I11" s="7">
-        <v>891476</v>
+        <v>612763</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2204,10 +2021,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1682</v>
+        <v>1222</v>
       </c>
       <c r="N11" s="7">
-        <v>1798093</v>
+        <v>1239332</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2225,10 +2042,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2240,10 +2057,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2255,10 +2072,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2278,49 +2095,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="D13" s="7">
-        <v>51940</v>
+        <v>93352</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>93</v>
+      </c>
+      <c r="I13" s="7">
+        <v>99236</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="7">
-        <v>70</v>
-      </c>
-      <c r="I13" s="7">
-        <v>71078</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>188</v>
+      </c>
+      <c r="N13" s="7">
+        <v>192588</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M13" s="7">
-        <v>115</v>
-      </c>
-      <c r="N13" s="7">
-        <v>123018</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2329,49 +2146,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>596</v>
+        <v>899</v>
       </c>
       <c r="D14" s="7">
-        <v>626569</v>
+        <v>848870</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="7">
+        <v>904</v>
+      </c>
+      <c r="I14" s="7">
+        <v>939376</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="7">
-        <v>626</v>
-      </c>
-      <c r="I14" s="7">
-        <v>612763</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>1803</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1788246</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M14" s="7">
-        <v>1222</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1239332</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2380,10 +2197,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2395,10 +2212,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2410,10 +2227,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2427,55 +2244,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="D16" s="7">
-        <v>93352</v>
+        <v>238649</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="7">
+        <v>284</v>
+      </c>
+      <c r="I16" s="7">
+        <v>296132</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H16" s="7">
+      <c r="L16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M16" s="7">
+        <v>511</v>
+      </c>
+      <c r="N16" s="7">
+        <v>534781</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="I16" s="7">
-        <v>99236</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="M16" s="7">
-        <v>188</v>
-      </c>
-      <c r="N16" s="7">
-        <v>192588</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2484,49 +2301,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>899</v>
+        <v>2987</v>
       </c>
       <c r="D17" s="7">
-        <v>848870</v>
+        <v>3037894</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>3013</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3083065</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" s="7">
-        <v>904</v>
-      </c>
-      <c r="I17" s="7">
-        <v>939376</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>6000</v>
+      </c>
+      <c r="N17" s="7">
+        <v>6120960</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="M17" s="7">
-        <v>1803</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1788246</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2535,10 +2352,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2550,10 +2367,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2565,10 +2382,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2581,171 +2398,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>227</v>
-      </c>
-      <c r="D19" s="7">
-        <v>238649</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="7">
-        <v>284</v>
-      </c>
-      <c r="I19" s="7">
-        <v>296132</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M19" s="7">
-        <v>511</v>
-      </c>
-      <c r="N19" s="7">
-        <v>534781</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2987</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3037895</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3013</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3083066</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6000</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6120959</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2758,8 +2419,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD83B3C-CBB8-42AE-A067-B46EFC72DDB8}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885F3D15-F4E0-41E6-9DCB-FE3F0F770517}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2775,7 +2436,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2876,49 +2537,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="D4" s="7">
-        <v>12076</v>
+        <v>58140</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="I4" s="7">
-        <v>7628</v>
+        <v>71695</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="N4" s="7">
-        <v>19704</v>
+        <v>129835</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2927,49 +2588,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>108</v>
+        <v>618</v>
       </c>
       <c r="D5" s="7">
-        <v>103689</v>
+        <v>645329</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
-        <v>92</v>
+        <v>584</v>
       </c>
       <c r="I5" s="7">
-        <v>104277</v>
+        <v>625355</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>200</v>
+        <v>1202</v>
       </c>
       <c r="N5" s="7">
-        <v>207966</v>
+        <v>1270684</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2978,10 +2639,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2993,10 +2654,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3008,10 +2669,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3031,49 +2692,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="D7" s="7">
-        <v>46064</v>
+        <v>75153</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="H7" s="7">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="I7" s="7">
-        <v>64067</v>
+        <v>75693</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>145</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="M7" s="7">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="N7" s="7">
-        <v>110131</v>
+        <v>150846</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3082,49 +2743,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>510</v>
+        <v>868</v>
       </c>
       <c r="D8" s="7">
-        <v>541640</v>
+        <v>942794</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
-        <v>492</v>
+        <v>870</v>
       </c>
       <c r="I8" s="7">
-        <v>521078</v>
+        <v>956491</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>152</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="M8" s="7">
-        <v>1002</v>
+        <v>1738</v>
       </c>
       <c r="N8" s="7">
-        <v>1062718</v>
+        <v>1899285</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>155</v>
+        <v>103</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3133,10 +2794,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3148,10 +2809,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3163,10 +2824,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1876</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2050131</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3186,49 +2847,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D10" s="7">
-        <v>75153</v>
+        <v>61450</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>40</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="H10" s="7">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="I10" s="7">
-        <v>75693</v>
+        <v>68001</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="M10" s="7">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="N10" s="7">
-        <v>150846</v>
+        <v>129451</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3237,49 +2898,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>868</v>
+        <v>636</v>
       </c>
       <c r="D11" s="7">
-        <v>942794</v>
+        <v>696173</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>163</v>
+        <v>48</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>68</v>
+        <v>144</v>
       </c>
       <c r="H11" s="7">
-        <v>870</v>
+        <v>644</v>
       </c>
       <c r="I11" s="7">
-        <v>956491</v>
+        <v>709173</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="M11" s="7">
-        <v>1738</v>
+        <v>1280</v>
       </c>
       <c r="N11" s="7">
-        <v>1899285</v>
+        <v>1405346</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3288,10 +2949,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3303,10 +2964,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>940</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1032184</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3318,10 +2979,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1876</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>2050131</v>
+        <v>1534797</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3341,49 +3002,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="D13" s="7">
-        <v>61450</v>
+        <v>90322</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>59</v>
+        <v>150</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="H13" s="7">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="I13" s="7">
-        <v>68001</v>
+        <v>138698</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="M13" s="7">
-        <v>114</v>
+        <v>210</v>
       </c>
       <c r="N13" s="7">
-        <v>129451</v>
+        <v>229020</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,49 +3053,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>636</v>
+        <v>827</v>
       </c>
       <c r="D14" s="7">
-        <v>696173</v>
+        <v>857417</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>159</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="H14" s="7">
-        <v>644</v>
+        <v>876</v>
       </c>
       <c r="I14" s="7">
-        <v>709173</v>
+        <v>913203</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="M14" s="7">
-        <v>1280</v>
+        <v>1703</v>
       </c>
       <c r="N14" s="7">
-        <v>1405346</v>
+        <v>1770620</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3443,10 +3104,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3458,10 +3119,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3473,10 +3134,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N15" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3490,55 +3151,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>83</v>
+        <v>260</v>
       </c>
       <c r="D16" s="7">
-        <v>90322</v>
+        <v>285066</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="H16" s="7">
-        <v>127</v>
+        <v>324</v>
       </c>
       <c r="I16" s="7">
-        <v>138698</v>
+        <v>354087</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="M16" s="7">
-        <v>210</v>
+        <v>584</v>
       </c>
       <c r="N16" s="7">
-        <v>229020</v>
+        <v>639153</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,49 +3208,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>827</v>
+        <v>2949</v>
       </c>
       <c r="D17" s="7">
-        <v>857417</v>
+        <v>3141713</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="H17" s="7">
-        <v>876</v>
+        <v>2974</v>
       </c>
       <c r="I17" s="7">
-        <v>913203</v>
+        <v>3204222</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="M17" s="7">
-        <v>1703</v>
+        <v>5923</v>
       </c>
       <c r="N17" s="7">
-        <v>1770620</v>
+        <v>6345935</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,10 +3259,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3613,10 +3274,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3298</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3558309</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3628,10 +3289,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1913</v>
+        <v>6507</v>
       </c>
       <c r="N18" s="7">
-        <v>1999640</v>
+        <v>6985088</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3644,171 +3305,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>260</v>
-      </c>
-      <c r="D19" s="7">
-        <v>285066</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="H19" s="7">
-        <v>324</v>
-      </c>
-      <c r="I19" s="7">
-        <v>354087</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="M19" s="7">
-        <v>584</v>
-      </c>
-      <c r="N19" s="7">
-        <v>639153</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2949</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3141713</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2974</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3204222</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5923</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6345935</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3298</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3558309</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6507</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6985088</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3821,8 +3326,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE95AC35-B330-4A42-962A-80EE7B1554D2}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA01CA9-2E2C-4816-B107-C1DBEDE8D5CD}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3838,7 +3343,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3939,49 +3444,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="D4" s="7">
-        <v>15496</v>
+        <v>83689</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="H4" s="7">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="I4" s="7">
-        <v>17300</v>
+        <v>81871</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>220</v>
+        <v>75</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="M4" s="7">
-        <v>32</v>
+        <v>157</v>
       </c>
       <c r="N4" s="7">
-        <v>32796</v>
+        <v>165560</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>191</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3990,49 +3495,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>98</v>
+        <v>571</v>
       </c>
       <c r="D5" s="7">
-        <v>101050</v>
+        <v>591111</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="H5" s="7">
-        <v>98</v>
+        <v>590</v>
       </c>
       <c r="I5" s="7">
-        <v>96060</v>
+        <v>590968</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>229</v>
+        <v>83</v>
       </c>
       <c r="M5" s="7">
-        <v>196</v>
+        <v>1161</v>
       </c>
       <c r="N5" s="7">
-        <v>197110</v>
+        <v>1182079</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>24</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4041,10 +3546,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4056,10 +3561,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4071,10 +3576,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4094,49 +3599,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="D7" s="7">
-        <v>68193</v>
+        <v>107171</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="H7" s="7">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="I7" s="7">
-        <v>64571</v>
+        <v>103123</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="M7" s="7">
-        <v>125</v>
+        <v>191</v>
       </c>
       <c r="N7" s="7">
-        <v>132764</v>
+        <v>210294</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,49 +3650,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>473</v>
+        <v>848</v>
       </c>
       <c r="D8" s="7">
-        <v>490061</v>
+        <v>915260</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="H8" s="7">
-        <v>492</v>
+        <v>889</v>
       </c>
       <c r="I8" s="7">
-        <v>494908</v>
+        <v>939790</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="M8" s="7">
-        <v>965</v>
+        <v>1737</v>
       </c>
       <c r="N8" s="7">
-        <v>984969</v>
+        <v>1855050</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4196,10 +3701,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4211,10 +3716,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4226,10 +3731,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4249,49 +3754,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="D10" s="7">
-        <v>107171</v>
+        <v>98633</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="H10" s="7">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I10" s="7">
-        <v>103123</v>
+        <v>96591</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>254</v>
+        <v>53</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="M10" s="7">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="N10" s="7">
-        <v>210294</v>
+        <v>195224</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,49 +3805,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>848</v>
+        <v>609</v>
       </c>
       <c r="D11" s="7">
-        <v>915260</v>
+        <v>660919</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="H11" s="7">
-        <v>889</v>
+        <v>650</v>
       </c>
       <c r="I11" s="7">
-        <v>939790</v>
+        <v>688420</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>263</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
-        <v>1737</v>
+        <v>1259</v>
       </c>
       <c r="N11" s="7">
-        <v>1855050</v>
+        <v>1349339</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4351,10 +3856,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4366,10 +3871,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4381,10 +3886,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4404,49 +3909,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="D13" s="7">
-        <v>98633</v>
+        <v>136602</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="H13" s="7">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="I13" s="7">
-        <v>96591</v>
+        <v>186413</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>239</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="M13" s="7">
-        <v>173</v>
+        <v>293</v>
       </c>
       <c r="N13" s="7">
-        <v>195224</v>
+        <v>323015</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4455,49 +3960,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>609</v>
+        <v>798</v>
       </c>
       <c r="D14" s="7">
-        <v>660919</v>
+        <v>800965</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="H14" s="7">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="I14" s="7">
-        <v>688420</v>
+        <v>857366</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>249</v>
       </c>
       <c r="M14" s="7">
-        <v>1259</v>
+        <v>1598</v>
       </c>
       <c r="N14" s="7">
-        <v>1349339</v>
+        <v>1658331</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4506,10 +4011,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4521,10 +4026,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4536,10 +4041,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4553,55 +4058,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>134</v>
+        <v>405</v>
       </c>
       <c r="D16" s="7">
-        <v>136602</v>
+        <v>426095</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>282</v>
+        <v>203</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="H16" s="7">
-        <v>159</v>
+        <v>409</v>
       </c>
       <c r="I16" s="7">
-        <v>186413</v>
+        <v>467998</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="M16" s="7">
-        <v>293</v>
+        <v>814</v>
       </c>
       <c r="N16" s="7">
-        <v>323015</v>
+        <v>894093</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4610,49 +4115,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>798</v>
+        <v>2826</v>
       </c>
       <c r="D17" s="7">
-        <v>800965</v>
+        <v>2968255</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>291</v>
+        <v>211</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="H17" s="7">
-        <v>800</v>
+        <v>2929</v>
       </c>
       <c r="I17" s="7">
-        <v>857366</v>
+        <v>3076544</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>296</v>
+        <v>265</v>
       </c>
       <c r="M17" s="7">
-        <v>1598</v>
+        <v>5755</v>
       </c>
       <c r="N17" s="7">
-        <v>1658331</v>
+        <v>6044799</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>299</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,10 +4166,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4676,10 +4181,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4691,10 +4196,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4707,171 +4212,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>405</v>
-      </c>
-      <c r="D19" s="7">
-        <v>426095</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="H19" s="7">
-        <v>409</v>
-      </c>
-      <c r="I19" s="7">
-        <v>467998</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="M19" s="7">
-        <v>814</v>
-      </c>
-      <c r="N19" s="7">
-        <v>894093</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2826</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2968255</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2929</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3076544</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5755</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6044799</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4884,8 +4233,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4DB297-47EC-4881-BD34-E80B4418DE88}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0EE654A-226B-4ADC-BEA6-F4CF20D0B615}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4901,7 +4250,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>316</v>
+        <v>269</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5002,49 +4351,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="D4" s="7">
-        <v>36126</v>
+        <v>158762</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>317</v>
+        <v>270</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>318</v>
+        <v>271</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>319</v>
+        <v>272</v>
       </c>
       <c r="H4" s="7">
-        <v>79</v>
+        <v>307</v>
       </c>
       <c r="I4" s="7">
-        <v>33222</v>
+        <v>136807</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>320</v>
+        <v>273</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>321</v>
+        <v>274</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>322</v>
+        <v>275</v>
       </c>
       <c r="M4" s="7">
-        <v>121</v>
+        <v>500</v>
       </c>
       <c r="N4" s="7">
-        <v>69348</v>
+        <v>295569</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>323</v>
+        <v>276</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>324</v>
+        <v>277</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>325</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5053,49 +4402,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>76</v>
+        <v>537</v>
       </c>
       <c r="D5" s="7">
-        <v>65856</v>
+        <v>476679</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>326</v>
+        <v>279</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>327</v>
+        <v>280</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>328</v>
+        <v>281</v>
       </c>
       <c r="H5" s="7">
-        <v>164</v>
+        <v>934</v>
       </c>
       <c r="I5" s="7">
-        <v>97511</v>
+        <v>588523</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>329</v>
+        <v>282</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>330</v>
+        <v>283</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>331</v>
+        <v>284</v>
       </c>
       <c r="M5" s="7">
-        <v>240</v>
+        <v>1471</v>
       </c>
       <c r="N5" s="7">
-        <v>163367</v>
+        <v>1065203</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>332</v>
+        <v>285</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>334</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5104,10 +4453,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5119,10 +4468,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1241</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>725330</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5134,10 +4483,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1971</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1360772</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5157,49 +4506,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="D7" s="7">
-        <v>126467</v>
+        <v>148129</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>335</v>
+        <v>288</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>336</v>
+        <v>289</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>337</v>
+        <v>290</v>
       </c>
       <c r="H7" s="7">
-        <v>228</v>
+        <v>293</v>
       </c>
       <c r="I7" s="7">
-        <v>113665</v>
+        <v>152892</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>338</v>
+        <v>291</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>339</v>
+        <v>292</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>340</v>
+        <v>293</v>
       </c>
       <c r="M7" s="7">
-        <v>379</v>
+        <v>473</v>
       </c>
       <c r="N7" s="7">
-        <v>240132</v>
+        <v>301021</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>341</v>
+        <v>294</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>342</v>
+        <v>16</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>343</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5208,49 +4557,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>461</v>
+        <v>784</v>
       </c>
       <c r="D8" s="7">
-        <v>423356</v>
+        <v>1044735</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>344</v>
+        <v>296</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>345</v>
+        <v>297</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>346</v>
+        <v>298</v>
       </c>
       <c r="H8" s="7">
-        <v>770</v>
+        <v>1224</v>
       </c>
       <c r="I8" s="7">
-        <v>506302</v>
+        <v>805759</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>347</v>
+        <v>299</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>348</v>
+        <v>300</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>349</v>
+        <v>301</v>
       </c>
       <c r="M8" s="7">
-        <v>1231</v>
+        <v>2008</v>
       </c>
       <c r="N8" s="7">
-        <v>929658</v>
+        <v>1850495</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>350</v>
+        <v>302</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>351</v>
+        <v>303</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>352</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5259,10 +4608,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5274,10 +4623,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>998</v>
+        <v>1517</v>
       </c>
       <c r="I9" s="7">
-        <v>619967</v>
+        <v>958651</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5289,10 +4638,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1610</v>
+        <v>2481</v>
       </c>
       <c r="N9" s="7">
-        <v>1169790</v>
+        <v>2151516</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5312,49 +4661,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>180</v>
+        <v>123</v>
       </c>
       <c r="D10" s="7">
-        <v>157382</v>
+        <v>113387</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>353</v>
+        <v>304</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>354</v>
+        <v>305</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>355</v>
+        <v>306</v>
       </c>
       <c r="H10" s="7">
-        <v>293</v>
+        <v>168</v>
       </c>
       <c r="I10" s="7">
-        <v>168606</v>
+        <v>97784</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>356</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>237</v>
+        <v>307</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>357</v>
+        <v>308</v>
       </c>
       <c r="M10" s="7">
-        <v>473</v>
+        <v>291</v>
       </c>
       <c r="N10" s="7">
-        <v>325988</v>
+        <v>211172</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>358</v>
+        <v>309</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>359</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5363,49 +4712,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>784</v>
+        <v>553</v>
       </c>
       <c r="D11" s="7">
-        <v>881866</v>
+        <v>591293</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>360</v>
+        <v>311</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>361</v>
+        <v>312</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>362</v>
+        <v>313</v>
       </c>
       <c r="H11" s="7">
-        <v>1224</v>
+        <v>879</v>
       </c>
       <c r="I11" s="7">
-        <v>891473</v>
+        <v>835582</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>363</v>
+        <v>210</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>364</v>
+        <v>314</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>245</v>
+        <v>315</v>
       </c>
       <c r="M11" s="7">
-        <v>2008</v>
+        <v>1432</v>
       </c>
       <c r="N11" s="7">
-        <v>1773339</v>
+        <v>1426874</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>365</v>
+        <v>316</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>366</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5414,10 +4763,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5429,10 +4778,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1517</v>
+        <v>1047</v>
       </c>
       <c r="I12" s="7">
-        <v>1060079</v>
+        <v>933366</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5444,10 +4793,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2481</v>
+        <v>1723</v>
       </c>
       <c r="N12" s="7">
-        <v>2099327</v>
+        <v>1638046</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5467,49 +4816,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>123</v>
+        <v>193</v>
       </c>
       <c r="D13" s="7">
-        <v>117122</v>
+        <v>159113</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>367</v>
+        <v>318</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>368</v>
+        <v>319</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="H13" s="7">
-        <v>168</v>
+        <v>360</v>
       </c>
       <c r="I13" s="7">
-        <v>106970</v>
+        <v>215027</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>370</v>
+        <v>321</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>371</v>
+        <v>322</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>372</v>
+        <v>323</v>
       </c>
       <c r="M13" s="7">
-        <v>291</v>
+        <v>553</v>
       </c>
       <c r="N13" s="7">
-        <v>224091</v>
+        <v>374140</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>373</v>
+        <v>324</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>374</v>
+        <v>325</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>375</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5518,49 +4867,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>553</v>
+        <v>813</v>
       </c>
       <c r="D14" s="7">
-        <v>611650</v>
+        <v>767718</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>376</v>
+        <v>327</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>377</v>
+        <v>328</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>378</v>
+        <v>329</v>
       </c>
       <c r="H14" s="7">
-        <v>879</v>
+        <v>1202</v>
       </c>
       <c r="I14" s="7">
-        <v>767401</v>
+        <v>879905</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>379</v>
+        <v>330</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>380</v>
+        <v>331</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>381</v>
+        <v>332</v>
       </c>
       <c r="M14" s="7">
-        <v>1432</v>
+        <v>2015</v>
       </c>
       <c r="N14" s="7">
-        <v>1379051</v>
+        <v>1647623</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>382</v>
+        <v>333</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>383</v>
+        <v>334</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>384</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5569,10 +4918,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>676</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>728772</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5584,10 +4933,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1047</v>
+        <v>1562</v>
       </c>
       <c r="I15" s="7">
-        <v>874371</v>
+        <v>1094932</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5599,10 +4948,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1723</v>
+        <v>2568</v>
       </c>
       <c r="N15" s="7">
-        <v>1603142</v>
+        <v>2021763</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5616,55 +4965,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>193</v>
+        <v>689</v>
       </c>
       <c r="D16" s="7">
-        <v>166172</v>
+        <v>579391</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>385</v>
+        <v>337</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>386</v>
+        <v>338</v>
       </c>
       <c r="H16" s="7">
-        <v>360</v>
+        <v>1128</v>
       </c>
       <c r="I16" s="7">
-        <v>243438</v>
+        <v>602510</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>387</v>
+        <v>339</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>388</v>
+        <v>340</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>389</v>
+        <v>341</v>
       </c>
       <c r="M16" s="7">
-        <v>553</v>
+        <v>1817</v>
       </c>
       <c r="N16" s="7">
-        <v>409610</v>
+        <v>1181902</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>390</v>
+        <v>342</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>285</v>
+        <v>343</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>391</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5673,49 +5022,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>813</v>
+        <v>2687</v>
       </c>
       <c r="D17" s="7">
-        <v>799231</v>
+        <v>2880426</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>392</v>
+        <v>346</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>393</v>
+        <v>347</v>
       </c>
       <c r="H17" s="7">
-        <v>1202</v>
+        <v>4239</v>
       </c>
       <c r="I17" s="7">
-        <v>906994</v>
+        <v>3109770</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>394</v>
+        <v>348</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>395</v>
+        <v>349</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>396</v>
+        <v>350</v>
       </c>
       <c r="M17" s="7">
-        <v>2015</v>
+        <v>6926</v>
       </c>
       <c r="N17" s="7">
-        <v>1706225</v>
+        <v>5990195</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>397</v>
+        <v>351</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>398</v>
+        <v>352</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>294</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5724,10 +5073,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3376</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3459817</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5739,10 +5088,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1562</v>
+        <v>5367</v>
       </c>
       <c r="I18" s="7">
-        <v>1150432</v>
+        <v>3712280</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5754,10 +5103,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2568</v>
+        <v>8743</v>
       </c>
       <c r="N18" s="7">
-        <v>2115835</v>
+        <v>7172097</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5770,171 +5119,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>689</v>
-      </c>
-      <c r="D19" s="7">
-        <v>603268</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1128</v>
-      </c>
-      <c r="I19" s="7">
-        <v>665901</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1817</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1269169</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2687</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2781960</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4239</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3169680</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6926</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5951640</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3376</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5367</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3835581</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8743</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7220809</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
